--- a/artfynd/A 46079-2025 artfynd.xlsx
+++ b/artfynd/A 46079-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,6 +1280,762 @@
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131106652</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80308</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>229497</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Korallblylav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Parmeliella triptophylla</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>601273</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6959781</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025_0524</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>08:52</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>aspstubbe</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131106657</v>
+      </c>
+      <c r="B9" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>601264</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6959676</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2025_0519</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>gammal asp</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131106656</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80221</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>392</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aspgelélav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Collema subnigrescens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Degel.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>601270</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6959748</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2025_0520</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>08:43</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>asphögstubbe</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131106655</v>
+      </c>
+      <c r="B11" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>601279</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6959779</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2025_0521</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>08:44</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131106658</v>
+      </c>
+      <c r="B12" t="n">
+        <v>80221</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>392</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aspgelélav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Collema subnigrescens</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Degel.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>601282</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6959785</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2025_0518</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131106662</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Lappberget, Mpd</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>601246</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6959852</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ljustorp</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025_0514</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Hackspår av spillkråka</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Samuel Koont</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 46079-2025 artfynd.xlsx
+++ b/artfynd/A 46079-2025 artfynd.xlsx
@@ -1285,7 +1285,7 @@
         <v>131106652</v>
       </c>
       <c r="B8" t="n">
-        <v>80308</v>
+        <v>80309</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>131106657</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>131106656</v>
       </c>
       <c r="B10" t="n">
-        <v>80221</v>
+        <v>80222</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>131106655</v>
       </c>
       <c r="B11" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>131106658</v>
       </c>
       <c r="B12" t="n">
-        <v>80221</v>
+        <v>80222</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>

--- a/artfynd/A 46079-2025 artfynd.xlsx
+++ b/artfynd/A 46079-2025 artfynd.xlsx
@@ -1285,7 +1285,7 @@
         <v>131106652</v>
       </c>
       <c r="B8" t="n">
-        <v>80309</v>
+        <v>80310</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>131106657</v>
       </c>
       <c r="B9" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>131106656</v>
       </c>
       <c r="B10" t="n">
-        <v>80222</v>
+        <v>80223</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>131106655</v>
       </c>
       <c r="B11" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>131106658</v>
       </c>
       <c r="B12" t="n">
-        <v>80222</v>
+        <v>80223</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
